--- a/RUDN/Importance/Varible_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_in_Eastern Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3605769276618958</v>
+        <v>0.3672566413879395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -443,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2668269276618958</v>
+        <v>0.2566371560096741</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1971153914928436</v>
+        <v>0.1969026476144791</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -459,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08653846383094788</v>
+        <v>0.0951327458024025</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -467,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02884615398943424</v>
+        <v>0.02212389372289181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01682692393660545</v>
+        <v>0.0199115052819252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -483,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01682692393660545</v>
+        <v>0.01327433623373508</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -491,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004807692486792803</v>
+        <v>0.006637168116867542</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -499,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004807692486792803</v>
+        <v>0.004424778744578362</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -507,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -515,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -523,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -531,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -539,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -547,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -555,7 +558,15 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.002403846243396401</v>
+        <v>0.002212389372289181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.002212389372289181</v>
       </c>
     </row>
   </sheetData>
